--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HarryBox\Documents\Investair\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HarryBox\Documents\SK_Investair\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7A3114-40AA-4437-B5FC-68279DC683DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD200865-5DBE-4E4D-A185-275A78EBF276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCB685F7-FF14-42C6-8964-184920738DDC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
   <si>
     <t>Samuel Kember Working Days &amp; Hours</t>
   </si>
@@ -54,6 +54,18 @@
   </si>
   <si>
     <t>Paid</t>
+  </si>
+  <si>
+    <t>Hours Outstaning</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting to Terry and Tom </t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -82,12 +94,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -111,16 +129,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -457,28 +491,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726C70A4-1E55-444B-A1B7-264DA953B7F5}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -491,145 +528,544 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="E2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>45714</v>
       </c>
-      <c r="B3" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="B3" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D3" s="6">
+        <v>8</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>45721</v>
       </c>
-      <c r="B4" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="B4" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D4" s="6">
+        <v>8</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>45723</v>
       </c>
-      <c r="B5" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="B5" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D5" s="6">
+        <v>8</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>45726</v>
       </c>
-      <c r="B6" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="B6" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D6" s="6">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>45741</v>
       </c>
-      <c r="B7" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="B7" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D7" s="6">
+        <v>8</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>45748</v>
       </c>
-      <c r="B8" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="B8" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D8" s="6">
+        <v>8</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>45750</v>
       </c>
-      <c r="B10" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="B9" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D9" s="6">
+        <v>8</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>45755</v>
       </c>
-      <c r="B11" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="B10" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D10" s="6">
+        <v>8</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>45757</v>
       </c>
-      <c r="B12" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D12">
-        <v>8</v>
+      <c r="B11" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D11" s="6">
+        <v>8</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>45762</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D12" s="6">
+        <v>8</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>45764</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D13" s="6">
+        <v>8</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>45771</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D14" s="6">
+        <v>8</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>45775</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D15" s="6">
+        <v>8</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>45778</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="6">
+        <v>4</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>45779</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="D17" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>45782</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D18" s="6">
+        <v>8</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>45785</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D19" s="6">
+        <v>8</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>45789</v>
+      </c>
+      <c r="B20" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="C20" s="10">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D20" s="12">
+        <v>8</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>45792</v>
+      </c>
+      <c r="B21" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D21" s="12">
+        <v>8</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>45793</v>
+      </c>
+      <c r="B22" s="10">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C22" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D22" s="12">
+        <v>1</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>45799</v>
+      </c>
+      <c r="B23" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D23" s="12">
+        <v>8</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>45800</v>
+      </c>
+      <c r="B24" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D24" s="12">
+        <v>8</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <f>SUM(D20:D31)</f>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="20">
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
